--- a/medicine/Sexualité et sexologie/Annie_Lobert/Annie_Lobert.xlsx
+++ b/medicine/Sexualité et sexologie/Annie_Lobert/Annie_Lobert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie Lobert, née le 6 septembre 1967 à Minneapolis, est une ancienne travailleuse du sexe devenue directrice de l’organisation évangélique Hookers for Jesus (Prostituées pour Jésus).
 </t>
@@ -511,12 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À 18 ans, elle commence la prostitution à Minneapolis, Hawaï et Las Vegas et a exercé dans ce domaine pendant 16 ans [1]. Elle arrête cette activité après être devenue chrétienne[1]. 
-Ministère
-En 2005, elle fonde l'association chrétienne évangélique Hookers for Jesus (littéralement « Prostituées pour Jésus »), qui lutte contre l'esclavage sexuel et toutes les formes de violences et d'exploitation dans le cadre des différentes activités de l'industrie du sexe[2].
-En 2008, elle collabore avec Heather Veitch de JC's Girls lors du AVN Adult Entertainment Expo à Las Vegas [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À 18 ans, elle commence la prostitution à Minneapolis, Hawaï et Las Vegas et a exercé dans ce domaine pendant 16 ans . Elle arrête cette activité après être devenue chrétienne. 
 </t>
         </is>
       </c>
@@ -542,12 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Filmographie</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2010, elle produit pour Hookers for Jesus un documentaire en trois parties, Hookers: Saved on the Strip, qui la met en scène et est diffusé sur Investigation Discovery[4].
+          <t>Ministère</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, elle fonde l'association chrétienne évangélique Hookers for Jesus (littéralement « Prostituées pour Jésus »), qui lutte contre l'esclavage sexuel et toutes les formes de violences et d'exploitation dans le cadre des différentes activités de l'industrie du sexe.
+En 2008, elle collabore avec Heather Veitch de JC's Girls lors du AVN Adult Entertainment Expo à Las Vegas .
 </t>
         </is>
       </c>
@@ -573,12 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Publications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annie Lobert écrit ensuite son autobiographie, Fallen, parue en 2015 aux éditions Worthy Publishing[5].
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, elle produit pour Hookers for Jesus un documentaire en trois parties, Hookers: Saved on the Strip, qui la met en scène et est diffusé sur Investigation Discovery.
 </t>
         </is>
       </c>
@@ -604,12 +624,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Lobert écrit ensuite son autobiographie, Fallen, parue en 2015 aux éditions Worthy Publishing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Annie_Lobert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Lobert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, elle se marie avec Oz Fox (en), guitariste du groupe de heavy metal chrétien Stryper[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, elle se marie avec Oz Fox (en), guitariste du groupe de heavy metal chrétien Stryper.
 </t>
         </is>
       </c>
